--- a/Info/Datasets.xlsx
+++ b/Info/Datasets.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sehlert\Downloads\GSCDB138_Info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7987BB7C-9272-4041-930A-5EB07EF2B837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10470"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="491">
   <si>
     <t>Name</t>
   </si>
@@ -297,9 +303,6 @@
     <t>ACONF</t>
   </si>
   <si>
-    <t xml:space="preserve">Isomerization energies of alkane conformers </t>
-  </si>
-  <si>
     <t>W1h-val</t>
   </si>
   <si>
@@ -318,9 +321,6 @@
     <t>Amino20x4</t>
   </si>
   <si>
-    <t>Isomerization energies of amino acid conformers</t>
-  </si>
-  <si>
     <t>MP2-F12/TZ-F12 + CCSD(Ts)-F12b/DZ-F12</t>
   </si>
   <si>
@@ -333,9 +333,6 @@
     <t>BUT14DIOL</t>
   </si>
   <si>
-    <t>Isomerization energies of butane-1,4-diol conformers</t>
-  </si>
-  <si>
     <t>Butanediol165</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t>ICONF</t>
   </si>
   <si>
-    <t>Isomerization energies in conformers of inorganic systems</t>
-  </si>
-  <si>
     <t>IDISP</t>
   </si>
   <si>
@@ -459,9 +453,6 @@
     <t>MCONF</t>
   </si>
   <si>
-    <t>Isomerization energies of melatonin conformers</t>
-  </si>
-  <si>
     <t>DLPNO-CCSD(T)/a[TQ]Z</t>
   </si>
   <si>
@@ -480,9 +471,6 @@
     <t>PCONF21</t>
   </si>
   <si>
-    <t>Isomerization energies of tri- and tetrapeptide conformers</t>
-  </si>
-  <si>
     <t>PCONF</t>
   </si>
   <si>
@@ -492,9 +480,6 @@
     <t>Pentane13</t>
   </si>
   <si>
-    <t xml:space="preserve">Isomerization energies of stationary points on the n-pentane torsional surface </t>
-  </si>
-  <si>
     <t>CCSD(T)-F12b/TZ</t>
   </si>
   <si>
@@ -516,15 +501,9 @@
     <t>SCONF</t>
   </si>
   <si>
-    <t>Isomerization energies of sugar conformers</t>
-  </si>
-  <si>
     <t>Styrene42</t>
   </si>
   <si>
-    <t xml:space="preserve">Isomerization energies of C8H8 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Styrene45 </t>
   </si>
   <si>
@@ -552,9 +531,6 @@
     <t>UPU23</t>
   </si>
   <si>
-    <t xml:space="preserve">Isomerization energies of RNA-backbone conformers </t>
-  </si>
-  <si>
     <t>3B-69</t>
   </si>
   <si>
@@ -1495,21 +1471,53 @@
   </si>
   <si>
     <t>J. Chem. Phys. 144, 114304 (2016)</t>
+  </si>
+  <si>
+    <t>Conformation</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conformation energies of RNA-backbone conformers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conformation energies of C8H8 </t>
+  </si>
+  <si>
+    <t>Conformation energies of sugar conformers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conformation energies of stationary points on the n-pentane torsional surface </t>
+  </si>
+  <si>
+    <t>Conformation energies of tri- and tetrapeptide conformers</t>
+  </si>
+  <si>
+    <t>Conformation energies of melatonin conformers</t>
+  </si>
+  <si>
+    <t>Conformation energies in conformers of inorganic systems</t>
+  </si>
+  <si>
+    <t>Conformation energies of amino acid conformers</t>
+  </si>
+  <si>
+    <t>Conformation energies of butane-1,4-diol conformers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conformation energies of alkane conformers </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="167" formatCode="0_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1534,156 +1542,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1696,201 +1554,15 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1898,253 +1570,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2168,76 +1600,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2524,36 +1912,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77450980392157" defaultRowHeight="15.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="21.6666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.1078431372549" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.88235294117647" style="6" customWidth="1"/>
-    <col min="4" max="4" width="52.4411764705882" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.8039215686275" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44117647058824" style="3" customWidth="1"/>
-    <col min="7" max="9" width="9.1078431372549" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.77450980392157" style="1"/>
-    <col min="11" max="11" width="14.4411764705882" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.4411764705882" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7745098039216" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.77450980392157" style="1"/>
+    <col min="1" max="1" width="21.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="52.3984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="9" width="9.09765625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="1"/>
+    <col min="11" max="11" width="14.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.796875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2597,7 +1984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="30.6" spans="1:13">
+    <row r="2" spans="1:13" ht="31">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2617,13 +2004,13 @@
         <v>28</v>
       </c>
       <c r="G2" s="7">
-        <v>35.1841771849604</v>
+        <v>35.184177184960397</v>
       </c>
       <c r="H2" s="7">
-        <v>0.717017425439918</v>
+        <v>0.71701742543991798</v>
       </c>
       <c r="I2" s="7">
-        <v>65.5592731857534</v>
+        <v>65.559273185753398</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
@@ -2632,7 +2019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="76.5" spans="1:12">
+    <row r="3" spans="1:13" ht="77.5">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2652,7 +2039,7 @@
         <v>46</v>
       </c>
       <c r="G3" s="7">
-        <v>25.2101489833178</v>
+        <v>25.210148983317801</v>
       </c>
       <c r="H3" s="7">
         <v>-12.300008984006</v>
@@ -2690,20 +2077,20 @@
         <v>876</v>
       </c>
       <c r="G4" s="7">
-        <v>26.9992811428127</v>
+        <v>26.999281142812698</v>
       </c>
       <c r="H4" s="7">
-        <v>-96.2599997565051</v>
+        <v>-96.259999756505096</v>
       </c>
       <c r="I4" s="7">
-        <v>144.39</v>
+        <v>144.38999999999999</v>
       </c>
       <c r="J4" s="1">
         <v>2022</v>
       </c>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -2723,13 +2110,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="7">
-        <v>48.7746943925477</v>
+        <v>48.774694392547701</v>
       </c>
       <c r="H5" s="7">
-        <v>13.640010285179</v>
+        <v>13.640010285179001</v>
       </c>
       <c r="I5" s="7">
-        <v>96.1700726287965</v>
+        <v>96.170072628796504</v>
       </c>
       <c r="J5" s="1">
         <v>2017</v>
@@ -2738,7 +2125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -2758,13 +2145,13 @@
         <v>11</v>
       </c>
       <c r="G6" s="7">
-        <v>23.0043252508954</v>
+        <v>23.004325250895398</v>
       </c>
       <c r="H6" s="7">
         <v>14.5000107643592</v>
       </c>
       <c r="I6" s="7">
-        <v>31.3000238463674</v>
+        <v>31.300023846367399</v>
       </c>
       <c r="J6" s="1">
         <v>2015</v>
@@ -2776,7 +2163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -2796,13 +2183,13 @@
         <v>27</v>
       </c>
       <c r="G7" s="7">
-        <v>8.06240920523212</v>
+        <v>8.0624092052321199</v>
       </c>
       <c r="H7" s="7">
-        <v>1.01000097136906</v>
+        <v>1.0100009713690601</v>
       </c>
       <c r="I7" s="7">
-        <v>17.240013312577</v>
+        <v>17.240013312576998</v>
       </c>
       <c r="J7" s="1">
         <v>2017</v>
@@ -2811,7 +2198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="31">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -2831,13 +2218,13 @@
         <v>14</v>
       </c>
       <c r="G8" s="7">
-        <v>45.8495196891599</v>
+        <v>45.849519689159898</v>
       </c>
       <c r="H8" s="7">
-        <v>33.712027192494</v>
+        <v>33.712027192493998</v>
       </c>
       <c r="I8" s="7">
-        <v>52.4170498510999</v>
+        <v>52.417049851099897</v>
       </c>
       <c r="J8" s="1">
         <v>2015</v>
@@ -2867,13 +2254,13 @@
         <v>22</v>
       </c>
       <c r="G9" s="7">
-        <v>29.2211625191144</v>
+        <v>29.221162519114401</v>
       </c>
       <c r="H9" s="7">
         <v>-2.39999971739726</v>
       </c>
       <c r="I9" s="7">
-        <v>82.1399968069566</v>
+        <v>82.139996806956603</v>
       </c>
       <c r="J9" s="1">
         <v>2008</v>
@@ -2883,7 +2270,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -2906,10 +2293,10 @@
         <v>36.573764915523</v>
       </c>
       <c r="H10" s="7">
-        <v>4.10000320383848</v>
+        <v>4.1000032038384804</v>
       </c>
       <c r="I10" s="7">
-        <v>74.2000560532185</v>
+        <v>74.200056053218503</v>
       </c>
       <c r="J10" s="1">
         <v>2017</v>
@@ -2918,7 +2305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" ht="30.6" spans="1:13">
+    <row r="11" spans="1:13" ht="31">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -2938,20 +2325,20 @@
         <v>35</v>
       </c>
       <c r="G11" s="7">
-        <v>32.856937285003</v>
+        <v>32.856937285002999</v>
       </c>
       <c r="H11" s="7">
         <v>-0.958646223521462</v>
       </c>
       <c r="I11" s="7">
-        <v>76.6913194935041</v>
+        <v>76.691319493504096</v>
       </c>
       <c r="J11" s="1">
         <v>2018</v>
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" ht="30.6" spans="1:12">
+    <row r="12" spans="1:13" ht="31">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
@@ -2971,13 +2358,13 @@
         <v>9</v>
       </c>
       <c r="G12" s="7">
-        <v>38.8694118833131</v>
+        <v>38.869411883313099</v>
       </c>
       <c r="H12" s="7">
-        <v>16.6000126349263</v>
+        <v>16.600012634926301</v>
       </c>
       <c r="I12" s="7">
-        <v>59.300045022205</v>
+        <v>59.300045022204998</v>
       </c>
       <c r="J12" s="1">
         <v>2012</v>
@@ -2989,7 +2376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" ht="30.6" spans="1:12">
+    <row r="13" spans="1:13" ht="31">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -3009,13 +2396,13 @@
         <v>26</v>
       </c>
       <c r="G13" s="7">
-        <v>36.1134704590395</v>
+        <v>36.113470459039497</v>
       </c>
       <c r="H13" s="7">
-        <v>-6.38145320388685</v>
+        <v>-6.3814532038868501</v>
       </c>
       <c r="I13" s="7">
-        <v>70.100379781816</v>
+        <v>70.100379781816002</v>
       </c>
       <c r="J13" s="1">
         <v>2012</v>
@@ -3027,7 +2414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" ht="30.6" spans="1:10">
+    <row r="14" spans="1:13" ht="31">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -3050,16 +2437,16 @@
         <v>0.121149930116044</v>
       </c>
       <c r="H14" s="7">
-        <v>-0.444741064645284</v>
+        <v>-0.44474106464528401</v>
       </c>
       <c r="I14" s="7">
-        <v>0.334249823962274</v>
+        <v>0.33424982396227398</v>
       </c>
       <c r="J14" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="30.6" spans="1:10">
+    <row r="15" spans="1:13" ht="31">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -3079,19 +2466,19 @@
         <v>128</v>
       </c>
       <c r="G15" s="7">
-        <v>0.472500475972862</v>
+        <v>0.47250047597286199</v>
       </c>
       <c r="H15" s="7">
-        <v>0.0823097902029761</v>
+        <v>8.2309790202976102E-2</v>
       </c>
       <c r="I15" s="7">
-        <v>1.07959114453284</v>
+        <v>1.0795911445328401</v>
       </c>
       <c r="J15" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" ht="30.6" spans="1:10">
+    <row r="16" spans="1:13" ht="31">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -3111,19 +2498,19 @@
         <v>136</v>
       </c>
       <c r="G16" s="7">
-        <v>18.0232256601784</v>
+        <v>18.023225660178401</v>
       </c>
       <c r="H16" s="7">
-        <v>-77.5165107671393</v>
+        <v>-77.516510767139295</v>
       </c>
       <c r="I16" s="7">
-        <v>18.8781983306906</v>
+        <v>18.878198330690601</v>
       </c>
       <c r="J16" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" ht="30.6" spans="1:10">
+    <row r="17" spans="1:13" ht="31">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -3143,19 +2530,19 @@
         <v>296</v>
       </c>
       <c r="G17" s="7">
-        <v>1.63556939255782</v>
+        <v>1.6355693925578201</v>
       </c>
       <c r="H17" s="7">
-        <v>0.0161339929814757</v>
+        <v>1.6133992981475699E-2</v>
       </c>
       <c r="I17" s="7">
-        <v>4.53022181672559</v>
+        <v>4.5302218167255903</v>
       </c>
       <c r="J17" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" ht="30.6" spans="1:10">
+    <row r="18" spans="1:13" ht="31">
       <c r="A18" s="2" t="s">
         <v>74</v>
       </c>
@@ -3178,7 +2565,7 @@
         <v>0.690007338083513</v>
       </c>
       <c r="H18" s="7">
-        <v>0.145373237327058</v>
+        <v>0.14537323732705801</v>
       </c>
       <c r="I18" s="7">
         <v>1.8484992109112</v>
@@ -3187,7 +2574,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" ht="45.9" spans="1:10">
+    <row r="19" spans="1:13" ht="46.5">
       <c r="A19" s="2" t="s">
         <v>77</v>
       </c>
@@ -3207,19 +2594,19 @@
         <v>275</v>
       </c>
       <c r="G19" s="9">
-        <v>0.000600484032086535</v>
+        <v>6.0048403208653501E-4</v>
       </c>
       <c r="H19" s="9">
-        <v>6.99836216040156e-6</v>
+        <v>6.9983621604015603E-6</v>
       </c>
       <c r="I19" s="9">
-        <v>0.00144233052612691</v>
+        <v>1.44233052612691E-3</v>
       </c>
       <c r="J19" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="20" ht="30.6" spans="1:11">
+    <row r="20" spans="1:13" ht="31">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
@@ -3239,13 +2626,13 @@
         <v>114</v>
       </c>
       <c r="G20" s="7">
-        <v>1.64879167062418</v>
+        <v>1.6487916706241801</v>
       </c>
       <c r="H20" s="7">
-        <v>0.0760001824413028</v>
+        <v>7.6000182441302799E-2</v>
       </c>
       <c r="I20" s="7">
-        <v>5.97599987990299</v>
+        <v>5.9759998799029903</v>
       </c>
       <c r="J20" s="1">
         <v>2015</v>
@@ -3254,21 +2641,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F21" s="3">
         <v>15</v>
@@ -3277,10 +2664,10 @@
         <v>2.23280707213216</v>
       </c>
       <c r="H21" s="7">
-        <v>0.595000718246848</v>
+        <v>0.59500071824684797</v>
       </c>
       <c r="I21" s="7">
-        <v>4.92500371459359</v>
+        <v>4.9250037145935899</v>
       </c>
       <c r="J21" s="1">
         <v>2009</v>
@@ -3292,9 +2679,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" ht="30.6" spans="1:11">
+    <row r="22" spans="1:13" ht="31">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>83</v>
@@ -3303,10 +2690,10 @@
         <v>84</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F22" s="3">
         <v>11</v>
@@ -3315,68 +2702,68 @@
         <v>1.80971368967574</v>
       </c>
       <c r="H22" s="7">
-        <v>-3.69499984744567</v>
+        <v>-3.6949998474456698</v>
       </c>
       <c r="I22" s="7">
-        <v>-0.225999990644753</v>
+        <v>-0.22599999064475301</v>
       </c>
       <c r="J22" s="1">
         <v>2009</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F23" s="3">
         <v>80</v>
       </c>
       <c r="G23" s="7">
-        <v>2.97975006810852</v>
+        <v>2.9797500681085198</v>
       </c>
       <c r="H23" s="7">
-        <v>0.057981875403144</v>
+        <v>5.7981875403144E-2</v>
       </c>
       <c r="I23" s="7">
-        <v>7.37000527392306</v>
+        <v>7.3700052739230602</v>
       </c>
       <c r="J23" s="1">
         <v>2016</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="31">
+      <c r="A24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="B24" s="6" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>101</v>
+        <v>489</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>54</v>
@@ -3385,10 +2772,10 @@
         <v>64</v>
       </c>
       <c r="G24" s="7">
-        <v>2.91127069733273</v>
+        <v>2.9112706973327298</v>
       </c>
       <c r="H24" s="7">
-        <v>0.149999864679302</v>
+        <v>0.14999986467930199</v>
       </c>
       <c r="I24" s="7">
         <v>4.70000329006516</v>
@@ -3397,15 +2784,15 @@
         <v>2017</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>83</v>
@@ -3414,34 +2801,34 @@
         <v>84</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F25" s="3">
         <v>6</v>
       </c>
       <c r="G25" s="7">
-        <v>41.544779543619</v>
+        <v>41.544779543619001</v>
       </c>
       <c r="H25" s="7">
-        <v>-5.83999975158997</v>
+        <v>-5.8399997515899704</v>
       </c>
       <c r="I25" s="7">
-        <v>84.6400001991969</v>
+        <v>84.640000199196905</v>
       </c>
       <c r="J25" s="1">
         <v>2016</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>83</v>
@@ -3450,33 +2837,33 @@
         <v>84</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26" s="3">
         <v>7</v>
       </c>
       <c r="G26" s="7">
-        <v>105.801047888942</v>
+        <v>105.80104788894199</v>
       </c>
       <c r="H26" s="7">
-        <v>37.4000283834773</v>
+        <v>37.400028383477299</v>
       </c>
       <c r="I26" s="7">
-        <v>164.88012484962</v>
+        <v>164.88012484961999</v>
       </c>
       <c r="J26" s="1">
         <v>2017</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" ht="30.6" spans="1:12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="31">
       <c r="A27" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>83</v>
@@ -3485,36 +2872,36 @@
         <v>84</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F27" s="3">
         <v>60</v>
       </c>
       <c r="G27" s="7">
-        <v>5.05876195078565</v>
+        <v>5.0587619507856498</v>
       </c>
       <c r="H27" s="7">
-        <v>-6.1424471651109</v>
+        <v>-6.1424471651108998</v>
       </c>
       <c r="I27" s="7">
-        <v>8.60420614531683</v>
+        <v>8.6042061453168301</v>
       </c>
       <c r="J27" s="1">
         <v>2014</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>83</v>
@@ -3523,7 +2910,7 @@
         <v>84</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>54</v>
@@ -3532,25 +2919,25 @@
         <v>22</v>
       </c>
       <c r="G28" s="7">
-        <v>4.96983554503256</v>
+        <v>4.9698355450325602</v>
       </c>
       <c r="H28" s="7">
-        <v>-2.74856585186291</v>
+        <v>-2.7485658518629101</v>
       </c>
       <c r="I28" s="7">
-        <v>9.22562103338403</v>
+        <v>9.2256210333840301</v>
       </c>
       <c r="J28" s="1">
         <v>2015</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" ht="30.6" spans="1:13">
+    <row r="29" spans="1:13" ht="31">
       <c r="A29" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>83</v>
@@ -3559,34 +2946,34 @@
         <v>84</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F29" s="3">
         <v>4</v>
       </c>
       <c r="G29" s="7">
-        <v>0.446416446204382</v>
+        <v>0.44641644620438198</v>
       </c>
       <c r="H29" s="7">
-        <v>0.254999769954814</v>
+        <v>0.25499976995481399</v>
       </c>
       <c r="I29" s="7">
-        <v>0.542000013048792</v>
+        <v>0.54200001304879197</v>
       </c>
       <c r="J29" s="1">
         <v>2010</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" ht="30.6" spans="1:13">
+    <row r="30" spans="1:13" ht="31">
       <c r="A30" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>83</v>
@@ -3595,45 +2982,45 @@
         <v>84</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F30" s="3">
         <v>9</v>
       </c>
       <c r="G30" s="7">
-        <v>2.75899925099547</v>
+        <v>2.7589992509954699</v>
       </c>
       <c r="H30" s="7">
         <v>1.34000004615405</v>
       </c>
       <c r="I30" s="7">
-        <v>3.94999957410233</v>
+        <v>3.9499995741023302</v>
       </c>
       <c r="J30" s="1">
         <v>2015</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" ht="30.6" spans="1:12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="31">
       <c r="A31" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>128</v>
+        <v>487</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>54</v>
@@ -3642,10 +3029,10 @@
         <v>17</v>
       </c>
       <c r="G31" s="7">
-        <v>4.54055466449991</v>
+        <v>4.5405546644999104</v>
       </c>
       <c r="H31" s="7">
-        <v>0.0999999097862016</v>
+        <v>9.9999909786201602E-2</v>
       </c>
       <c r="I31" s="7">
         <v>12.1600091103053</v>
@@ -3654,47 +3041,47 @@
         <v>2017</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="F32" s="3">
         <v>6</v>
       </c>
       <c r="G32" s="7">
-        <v>25.228198346573</v>
+        <v>25.228198346572999</v>
       </c>
       <c r="H32" s="7">
-        <v>-60.2800453931287</v>
+        <v>-60.280045393128702</v>
       </c>
       <c r="I32" s="7">
-        <v>9.10000685077172</v>
+        <v>9.1000068507717202</v>
       </c>
       <c r="J32" s="1">
         <v>2017</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" ht="30.6" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="31">
       <c r="A33" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>83</v>
@@ -3703,7 +3090,7 @@
         <v>84</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>54</v>
@@ -3712,24 +3099,24 @@
         <v>34</v>
       </c>
       <c r="G33" s="7">
-        <v>20.296785173313</v>
+        <v>20.296785173313001</v>
       </c>
       <c r="H33" s="7">
-        <v>1.06000092626216</v>
+        <v>1.0600009262621599</v>
       </c>
       <c r="I33" s="7">
-        <v>66.0600502189227</v>
+        <v>66.060050218922697</v>
       </c>
       <c r="J33" s="1">
         <v>2017</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>83</v>
@@ -3738,10 +3125,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F34" s="3">
         <v>23</v>
@@ -3750,24 +3137,24 @@
         <v>28.0260008088615</v>
       </c>
       <c r="H34" s="7">
-        <v>0.139999873700682</v>
+        <v>0.13999987370068201</v>
       </c>
       <c r="I34" s="7">
-        <v>71.0100539109629</v>
+        <v>71.010053910962895</v>
       </c>
       <c r="J34" s="1">
         <v>2023</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>83</v>
@@ -3776,45 +3163,45 @@
         <v>84</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F35" s="3">
         <v>20</v>
       </c>
       <c r="G35" s="7">
-        <v>44.0479243152558</v>
+        <v>44.047924315255798</v>
       </c>
       <c r="H35" s="7">
-        <v>-91.8699961867771</v>
+        <v>-91.869996186777101</v>
       </c>
       <c r="I35" s="7">
-        <v>-0.209999810551023</v>
+        <v>-0.20999981055102299</v>
       </c>
       <c r="J35" s="1">
         <v>2011</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F36" s="3">
         <v>51</v>
@@ -3823,24 +3210,24 @@
         <v>5.35522656654401</v>
       </c>
       <c r="H36" s="7">
-        <v>0.39000027567566</v>
+        <v>0.39000027567565998</v>
       </c>
       <c r="I36" s="7">
-        <v>8.75000653901054</v>
+        <v>8.7500065390105402</v>
       </c>
       <c r="J36" s="1">
         <v>2017</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>83</v>
@@ -3849,45 +3236,45 @@
         <v>84</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F37" s="3">
         <v>20</v>
       </c>
       <c r="G37" s="7">
-        <v>6.2348835965298</v>
+        <v>6.2348835965297997</v>
       </c>
       <c r="H37" s="7">
-        <v>0.600000713736158</v>
+        <v>0.60000071373615804</v>
       </c>
       <c r="I37" s="7">
-        <v>17.8800133627181</v>
+        <v>17.880013362718099</v>
       </c>
       <c r="J37" s="1">
         <v>2017</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" ht="30.6" spans="1:13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="31">
       <c r="A38" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>150</v>
+        <v>485</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F38" s="3">
         <v>18</v>
@@ -3896,60 +3283,60 @@
         <v>1.78857149930934</v>
       </c>
       <c r="H38" s="7">
-        <v>0.020017552222514</v>
+        <v>2.0017552222514001E-2</v>
       </c>
       <c r="I38" s="7">
-        <v>2.80000186657996</v>
+        <v>2.8000018665799602</v>
       </c>
       <c r="J38" s="1">
         <v>2017</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" ht="30.6" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="31">
       <c r="A39" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>154</v>
+        <v>484</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F39" s="3">
         <v>13</v>
       </c>
       <c r="G39" s="7">
-        <v>6.75029292814127</v>
+        <v>6.7502929281412696</v>
       </c>
       <c r="H39" s="7">
-        <v>0.598000000179633</v>
+        <v>0.59800000017963295</v>
       </c>
       <c r="I39" s="7">
-        <v>16.5569999999094</v>
+        <v>16.556999999909401</v>
       </c>
       <c r="J39" s="6">
         <v>2013</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" ht="30.6" spans="1:11">
+    <row r="40" spans="1:13" ht="31">
       <c r="A40" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>83</v>
@@ -3958,77 +3345,77 @@
         <v>84</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F40" s="3">
         <v>462</v>
       </c>
       <c r="G40" s="7">
-        <v>2.74328795731867</v>
+        <v>2.7432879573186701</v>
       </c>
       <c r="H40" s="7">
         <v>-0.111999773458651</v>
       </c>
       <c r="I40" s="7">
-        <v>15.8030003017332</v>
+        <v>15.803000301733199</v>
       </c>
       <c r="J40" s="1">
         <v>2022</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>162</v>
+        <v>483</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F41" s="3">
         <v>17</v>
       </c>
       <c r="G41" s="7">
-        <v>4.96349991286015</v>
+        <v>4.9634999128601498</v>
       </c>
       <c r="H41" s="7">
         <v>0.200000447081877</v>
       </c>
       <c r="I41" s="7">
-        <v>6.31000497517038</v>
+        <v>6.3100049751703802</v>
       </c>
       <c r="J41" s="1">
         <v>2017</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>164</v>
+        <v>482</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>54</v>
@@ -4037,25 +3424,25 @@
         <v>42</v>
       </c>
       <c r="G42" s="7">
-        <v>67.5768184043701</v>
+        <v>67.576818404370101</v>
       </c>
       <c r="H42" s="7">
-        <v>11.519999647522</v>
+        <v>11.519999647522001</v>
       </c>
       <c r="I42" s="7">
-        <v>124.459995024027</v>
+        <v>124.45999502402699</v>
       </c>
       <c r="J42" s="1">
         <v>2012</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>83</v>
@@ -4064,10 +3451,10 @@
         <v>84</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F43" s="3">
         <v>28</v>
@@ -4076,7 +3463,7 @@
         <v>1.54881192011179</v>
       </c>
       <c r="H43" s="7">
-        <v>0.337022160818671</v>
+        <v>0.33702216081867098</v>
       </c>
       <c r="I43" s="7">
         <v>3.62404479787766</v>
@@ -4085,13 +3472,13 @@
         <v>2013</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>83</v>
@@ -4100,54 +3487,54 @@
         <v>84</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F44" s="3">
         <v>15</v>
       </c>
       <c r="G44" s="7">
-        <v>4.52337891905405</v>
+        <v>4.5233789190540499</v>
       </c>
       <c r="H44" s="7">
-        <v>-5.440003877502</v>
+        <v>-5.4400038775019999</v>
       </c>
       <c r="I44" s="7">
-        <v>13.0300095804642</v>
+        <v>13.030009580464201</v>
       </c>
       <c r="J44" s="1">
         <v>2017</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="31">
       <c r="A45" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>174</v>
+        <v>481</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F45" s="3">
         <v>23</v>
       </c>
       <c r="G45" s="7">
-        <v>6.51518586386413</v>
+        <v>6.5151858638641302</v>
       </c>
       <c r="H45" s="7">
-        <v>0.570000740800297</v>
+        <v>0.57000074080029695</v>
       </c>
       <c r="I45" s="7">
         <v>14.4100108455517</v>
@@ -4156,30 +3543,30 @@
         <v>2017</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" ht="30.6" spans="1:11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="31">
       <c r="A46" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F46" s="3">
         <v>69</v>
       </c>
       <c r="G46" s="7">
-        <v>0.686841330879481</v>
+        <v>0.68684133087948096</v>
       </c>
       <c r="H46" s="7">
         <v>-2.41599995396684</v>
@@ -4191,33 +3578,33 @@
         <v>2015</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" ht="30.6" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="31">
       <c r="A47" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F47" s="3">
         <v>20</v>
       </c>
       <c r="G47" s="7">
-        <v>2.00514889370533</v>
+        <v>2.0051488937053299</v>
       </c>
       <c r="H47" s="7">
-        <v>-4.62299971997484</v>
+        <v>-4.6229997199748398</v>
       </c>
       <c r="I47" s="7">
         <v>4.15199989387804</v>
@@ -4226,30 +3613,30 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="48" ht="30.6" spans="1:11">
+    <row r="48" spans="1:13" ht="31">
       <c r="A48" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F48" s="3">
         <v>24</v>
       </c>
       <c r="G48" s="7">
-        <v>2.65059287387282</v>
+        <v>2.6505928738728199</v>
       </c>
       <c r="H48" s="7">
-        <v>-6.55499973407078</v>
+        <v>-6.5549997340707797</v>
       </c>
       <c r="I48" s="7">
         <v>1.09599988977003</v>
@@ -4258,21 +3645,21 @@
         <v>2015</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>54</v>
@@ -4284,107 +3671,107 @@
         <v>3.65966356464281</v>
       </c>
       <c r="H49" s="7">
-        <v>1.340001301173</v>
+        <v>1.3400013011730001</v>
       </c>
       <c r="I49" s="7">
-        <v>5.5500044057763</v>
+        <v>5.5500044057763001</v>
       </c>
       <c r="J49" s="1">
         <v>2017</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F50" s="3">
         <v>21</v>
       </c>
       <c r="G50" s="7">
-        <v>26.1748569114544</v>
+        <v>26.174856911454398</v>
       </c>
       <c r="H50" s="7">
-        <v>-65.6800493067162</v>
+        <v>-65.680049306716199</v>
       </c>
       <c r="I50" s="7">
-        <v>-7.97000598765922</v>
+        <v>-7.9700059876592197</v>
       </c>
       <c r="J50" s="1">
         <v>2015</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" ht="30.6" spans="1:13">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="31">
       <c r="A51" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F51" s="3">
         <v>30</v>
       </c>
       <c r="G51" s="7">
-        <v>23.6490735638718</v>
+        <v>23.649073563871799</v>
       </c>
       <c r="H51" s="7">
-        <v>-46.4199980813031</v>
+        <v>-46.419998081303099</v>
       </c>
       <c r="I51" s="7">
-        <v>-1.41999994135252</v>
+        <v>-1.4199999413525199</v>
       </c>
       <c r="J51" s="1">
         <v>2014</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" ht="30.6" spans="1:11">
+    <row r="52" spans="1:13" ht="31">
       <c r="A52" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F52" s="3">
         <v>215</v>
@@ -4393,30 +3780,30 @@
         <v>1.8097302023444</v>
       </c>
       <c r="H52" s="7">
-        <v>-4.19809982656159</v>
+        <v>-4.1980998265615899</v>
       </c>
       <c r="I52" s="7">
-        <v>4.00909983454072</v>
+        <v>4.0090998345407201</v>
       </c>
       <c r="J52" s="1">
         <v>2009</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" ht="30.6" spans="1:12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="31">
       <c r="A53" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>21</v>
@@ -4425,45 +3812,45 @@
         <v>8</v>
       </c>
       <c r="G53" s="7">
-        <v>7.46540953258302</v>
+        <v>7.4654095325830196</v>
       </c>
       <c r="H53" s="7">
         <v>1.20500079545215</v>
       </c>
       <c r="I53" s="7">
-        <v>16.2960125326706</v>
+        <v>16.296012532670598</v>
       </c>
       <c r="J53" s="1">
         <v>2017</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F54" s="3">
         <v>6</v>
       </c>
       <c r="G54" s="7">
-        <v>27.8452411801269</v>
+        <v>27.845241180126902</v>
       </c>
       <c r="H54" s="7">
-        <v>-39.090029368902</v>
+        <v>-39.090029368902002</v>
       </c>
       <c r="I54" s="7">
         <v>-17.830013407825</v>
@@ -4472,133 +3859,133 @@
         <v>2015</v>
       </c>
       <c r="K54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F55" s="3">
         <v>20</v>
       </c>
       <c r="G55" s="7">
-        <v>1.0731308889271</v>
+        <v>1.0731308889271001</v>
       </c>
       <c r="H55" s="7">
-        <v>-1.82999992413627</v>
+        <v>-1.8299999241362701</v>
       </c>
       <c r="I55" s="7">
-        <v>-0.319999986792504</v>
+        <v>-0.31999998679250402</v>
       </c>
       <c r="J55" s="1">
         <v>2012</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="M55" s="5"/>
     </row>
-    <row r="56" ht="30.6" spans="1:11">
+    <row r="56" spans="1:13" ht="31">
       <c r="A56" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F56" s="3">
         <v>14</v>
       </c>
       <c r="G56" s="7">
-        <v>3.7036389838281</v>
+        <v>3.7036389838281001</v>
       </c>
       <c r="H56" s="7">
-        <v>-6.32999973813132</v>
+        <v>-6.3299997381313204</v>
       </c>
       <c r="I56" s="7">
-        <v>-0.84999996485876</v>
+        <v>-0.84999996485875995</v>
       </c>
       <c r="J56" s="1">
         <v>2012</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F57" s="3">
         <v>10</v>
       </c>
       <c r="G57" s="7">
-        <v>168.496235175413</v>
+        <v>168.49623517541301</v>
       </c>
       <c r="H57" s="7">
-        <v>-171.419992820233</v>
+        <v>-171.41999282023301</v>
       </c>
       <c r="I57" s="7">
-        <v>-163.589992981369</v>
+        <v>-163.58999298136899</v>
       </c>
       <c r="J57" s="1">
         <v>2015</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" ht="30.6" spans="1:11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="31">
       <c r="A58" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F58" s="3">
         <v>49</v>
@@ -4607,7 +3994,7 @@
         <v>14.1245197488757</v>
       </c>
       <c r="H58" s="7">
-        <v>-33.8479909252575</v>
+        <v>-33.847990925257498</v>
       </c>
       <c r="I58" s="7">
         <v>-1.74952214156772</v>
@@ -4616,89 +4003,89 @@
         <v>2015</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F59" s="3">
         <v>262</v>
       </c>
       <c r="G59" s="7">
-        <v>7.19588835976904</v>
+        <v>7.1958883597690404</v>
       </c>
       <c r="H59" s="7">
-        <v>-20.518</v>
+        <v>-20.518000000000001</v>
       </c>
       <c r="I59" s="7">
-        <v>-2.118</v>
+        <v>-2.1179999999999999</v>
       </c>
       <c r="J59" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="60" ht="30.6" spans="1:13">
+    <row r="60" spans="1:13" ht="31">
       <c r="A60" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F60" s="3">
         <v>32</v>
       </c>
       <c r="G60" s="7">
-        <v>4.39372246823507</v>
+        <v>4.3937224682350697</v>
       </c>
       <c r="H60" s="7">
-        <v>-8.21000012356084</v>
+        <v>-8.2100001235608406</v>
       </c>
       <c r="I60" s="7">
-        <v>-1.01999970732873</v>
+        <v>-1.0199997073287299</v>
       </c>
       <c r="J60" s="1">
         <v>2017</v>
       </c>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" ht="30.6" spans="1:10">
+    <row r="61" spans="1:13" ht="31">
       <c r="A61" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F61" s="3">
         <v>49</v>
@@ -4707,30 +4094,30 @@
         <v>25.7868920708971</v>
       </c>
       <c r="H61" s="7">
-        <v>-130.798074773066</v>
+        <v>-130.79807477306599</v>
       </c>
       <c r="I61" s="7">
-        <v>5.39777374491671</v>
+        <v>5.3977737449167096</v>
       </c>
       <c r="J61" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F62" s="3">
         <v>28</v>
@@ -4739,7 +4126,7 @@
         <v>1.42963141144376</v>
       </c>
       <c r="H62" s="7">
-        <v>0.3600003027398</v>
+        <v>0.36000030273979999</v>
       </c>
       <c r="I62" s="7">
         <v>3.35000262542302</v>
@@ -4748,196 +4135,196 @@
         <v>2017</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" ht="30.6" spans="1:11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="31">
       <c r="A63" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F63" s="3">
         <v>21</v>
       </c>
       <c r="G63" s="7">
-        <v>6.6256842226484</v>
+        <v>6.6256842226483998</v>
       </c>
       <c r="H63" s="7">
-        <v>-19.0759992114837</v>
+        <v>-19.075999211483701</v>
       </c>
       <c r="I63" s="7">
-        <v>0.377999984669259</v>
+        <v>0.37799998466925899</v>
       </c>
       <c r="J63" s="1">
         <v>2011</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F64" s="3">
         <v>30</v>
       </c>
       <c r="G64" s="7">
-        <v>2.33556407510599</v>
+        <v>2.3355640751059901</v>
       </c>
       <c r="H64" s="7">
-        <v>-3.80999984221879</v>
+        <v>-3.8099998422187902</v>
       </c>
       <c r="I64" s="7">
-        <v>-0.659999972485005</v>
+        <v>-0.65999997248500497</v>
       </c>
       <c r="J64" s="1">
         <v>2012</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F65" s="3">
         <v>5</v>
       </c>
       <c r="G65" s="7">
-        <v>62.8422714534339</v>
+        <v>62.842271453433902</v>
       </c>
       <c r="H65" s="7">
-        <v>-86.8599963139221</v>
+        <v>-86.859996313922096</v>
       </c>
       <c r="I65" s="7">
-        <v>-31.0099990076085</v>
+        <v>-31.009999007608499</v>
       </c>
       <c r="J65" s="1">
         <v>2015</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F66" s="3">
         <v>6</v>
       </c>
       <c r="G66" s="7">
-        <v>81.4162631920317</v>
+        <v>81.416263192031707</v>
       </c>
       <c r="H66" s="7">
         <v>-116.57999523027</v>
       </c>
       <c r="I66" s="7">
-        <v>-32.3099986643966</v>
+        <v>-32.309998664396602</v>
       </c>
       <c r="J66" s="1">
         <v>2015</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="67" ht="30.6" spans="1:10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="31">
       <c r="A67" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F67" s="3">
         <v>100</v>
       </c>
       <c r="G67" s="7">
-        <v>20.6886199002796</v>
+        <v>20.688619900279601</v>
       </c>
       <c r="H67" s="7">
-        <v>-40.9280002258575</v>
+        <v>-40.928000225857502</v>
       </c>
       <c r="I67" s="7">
-        <v>-2.593000296296</v>
+        <v>-2.5930002962960002</v>
       </c>
       <c r="J67" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="68" ht="30.6" spans="1:10">
+    <row r="68" spans="1:13" ht="31">
       <c r="A68" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F68" s="3">
         <v>200</v>
@@ -4946,7 +4333,7 @@
         <v>13.8655740607479</v>
       </c>
       <c r="H68" s="7">
-        <v>-31.0739999538868</v>
+        <v>-31.073999953886801</v>
       </c>
       <c r="I68" s="7">
         <v>0.41200013032673</v>
@@ -4955,21 +4342,21 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
@@ -4978,36 +4365,36 @@
         <v>109.342827134629</v>
       </c>
       <c r="H69" s="7">
-        <v>-120.800091197254</v>
+        <v>-120.80009119725401</v>
       </c>
       <c r="I69" s="7">
-        <v>-87.4200660897859</v>
+        <v>-87.420066089785905</v>
       </c>
       <c r="J69" s="1">
         <v>2015</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" ht="30.6" spans="1:13">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="31">
       <c r="A70" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F70" s="3">
         <v>184</v>
@@ -5016,83 +4403,83 @@
         <v>1.91483152600886</v>
       </c>
       <c r="H70" s="7">
-        <v>-2.95399987775278</v>
+        <v>-2.9539998777527798</v>
       </c>
       <c r="I70" s="7">
-        <v>9.34099961403549</v>
+        <v>9.3409996140354892</v>
       </c>
       <c r="J70" s="1">
         <v>2011</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="31">
       <c r="A71" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F71" s="3">
         <v>11</v>
       </c>
       <c r="G71" s="7">
-        <v>0.481248154367969</v>
+        <v>0.48124815436796903</v>
       </c>
       <c r="H71" s="7">
-        <v>-1.14322562527832</v>
+        <v>-1.1432256252783199</v>
       </c>
       <c r="I71" s="7">
-        <v>-0.0314219721550278</v>
+        <v>-3.1421972155027802E-2</v>
       </c>
       <c r="J71" s="1">
         <v>2014</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" ht="30.6" spans="1:13">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="31">
       <c r="A72" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F72" s="3">
         <v>24</v>
       </c>
       <c r="G72" s="7">
-        <v>7.12859649965927</v>
+        <v>7.1285964996592703</v>
       </c>
       <c r="H72" s="7">
         <v>-29.5206284887776</v>
       </c>
       <c r="I72" s="7">
-        <v>-0.0559820027093148</v>
+        <v>-5.5982002709314797E-2</v>
       </c>
       <c r="J72" s="1">
         <v>2021</v>
@@ -5101,19 +4488,19 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F73" s="3">
         <v>96</v>
@@ -5125,37 +4512,37 @@
         <v>-25.5114516337241</v>
       </c>
       <c r="I73" s="7">
-        <v>0.150648081966006</v>
+        <v>0.15064808196600599</v>
       </c>
       <c r="J73" s="1">
         <v>2021</v>
       </c>
       <c r="M73" s="5"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F74" s="3">
         <v>23</v>
       </c>
       <c r="G74" s="7">
-        <v>5.02131535502587</v>
+        <v>5.0213153550258696</v>
       </c>
       <c r="H74" s="7">
-        <v>0.640000677650638</v>
+        <v>0.64000067765063795</v>
       </c>
       <c r="I74" s="7">
         <v>10.9700083013211</v>
@@ -5164,54 +4551,54 @@
         <v>2017</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="75" ht="30.6" spans="1:13">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="31">
       <c r="A75" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F75" s="3">
         <v>275</v>
       </c>
       <c r="G75" s="7">
-        <v>22.0448060015187</v>
+        <v>22.044806001518701</v>
       </c>
       <c r="H75" s="7">
-        <v>-0.38964322278492</v>
+        <v>-0.38964322278491997</v>
       </c>
       <c r="I75" s="7">
-        <v>238.396493015604</v>
+        <v>238.39649301560399</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="M75" s="5"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F76" s="3">
         <v>18</v>
@@ -5220,42 +4607,42 @@
         <v>0.705234933428599</v>
       </c>
       <c r="H76" s="7">
-        <v>0.0799999278289613</v>
+        <v>7.9999927828961301E-2</v>
       </c>
       <c r="I76" s="7">
-        <v>1.51000114780954</v>
+        <v>1.5100011478095401</v>
       </c>
       <c r="J76" s="1">
         <v>2017</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F77" s="3">
         <v>22</v>
       </c>
       <c r="G77" s="7">
-        <v>9.64593258726085</v>
+        <v>9.6459325872608499</v>
       </c>
       <c r="H77" s="7">
-        <v>0.527000654090336</v>
+        <v>0.52700065409033603</v>
       </c>
       <c r="I77" s="7">
         <v>20.6410155154853</v>
@@ -5264,147 +4651,147 @@
         <v>2011</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F78" s="3">
         <v>66</v>
       </c>
       <c r="G78" s="7">
-        <v>6.88595335217263</v>
+        <v>6.8859533521726304</v>
       </c>
       <c r="H78" s="7">
-        <v>-19.7479998803463</v>
+        <v>-19.747999880346299</v>
       </c>
       <c r="I78" s="7">
-        <v>-1.34300016894953</v>
+        <v>-1.3430001689495299</v>
       </c>
       <c r="J78" s="1">
         <v>2022</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F79" s="3">
         <v>38</v>
       </c>
       <c r="G79" s="7">
-        <v>51.6071954750184</v>
+        <v>51.607195475018401</v>
       </c>
       <c r="H79" s="7">
-        <v>-93.1421057239156</v>
+        <v>-93.142105723915606</v>
       </c>
       <c r="I79" s="7">
-        <v>-4.96979691450923</v>
+        <v>-4.9697969145092298</v>
       </c>
       <c r="J79" s="6">
         <v>2023</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="31">
       <c r="A80" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F80" s="3">
         <v>22</v>
       </c>
       <c r="G80" s="7">
-        <v>34.1992360962777</v>
+        <v>34.199236096277701</v>
       </c>
       <c r="H80" s="7">
-        <v>-43.3196095140771</v>
+        <v>-43.319609514077101</v>
       </c>
       <c r="I80" s="7">
-        <v>-19.9757494238805</v>
+        <v>-19.975749423880501</v>
       </c>
       <c r="J80" s="1">
         <v>2013</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F81" s="3">
         <v>13</v>
       </c>
       <c r="G81" s="7">
-        <v>21.999769779298</v>
+        <v>21.999769779297999</v>
       </c>
       <c r="H81" s="7">
-        <v>-64.201717934553</v>
+        <v>-64.201717934553002</v>
       </c>
       <c r="I81" s="7">
         <v>-1.68977068944772</v>
@@ -5413,25 +4800,25 @@
         <v>2013</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M81" s="5"/>
     </row>
-    <row r="82" ht="30.6" spans="1:13">
+    <row r="82" spans="1:13" ht="31">
       <c r="A82" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F82" s="3">
         <v>27</v>
@@ -5440,86 +4827,86 @@
         <v>101.179499676614</v>
       </c>
       <c r="H82" s="7">
-        <v>5.01000363791186</v>
+        <v>5.0100036379118604</v>
       </c>
       <c r="I82" s="7">
-        <v>210.763</v>
+        <v>210.76300000000001</v>
       </c>
       <c r="J82" s="6">
         <v>2023</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="83" ht="30.6" spans="1:12">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="31">
       <c r="A83" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F83" s="3">
         <v>40</v>
       </c>
       <c r="G83" s="7">
-        <v>4.89873498688843</v>
+        <v>4.8987349868884298</v>
       </c>
       <c r="H83" s="7">
-        <v>-14.1379999212646</v>
+        <v>-14.137999921264599</v>
       </c>
       <c r="I83" s="7">
-        <v>-0.457999712322698</v>
+        <v>-0.45799971232269798</v>
       </c>
       <c r="J83" s="1">
         <v>2012</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F84" s="3">
         <v>200</v>
       </c>
       <c r="G84" s="7">
-        <v>4.01748917068721</v>
+        <v>4.0174891706872096</v>
       </c>
       <c r="H84" s="7">
-        <v>-14.1229999347966</v>
+        <v>-14.122999934796599</v>
       </c>
       <c r="I84" s="7">
         <v>11.94900026452</v>
@@ -5528,36 +4915,36 @@
         <v>2012</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F85" s="3">
         <v>8</v>
       </c>
       <c r="G85" s="7">
-        <v>5.22947859321618</v>
+        <v>5.2294785932161796</v>
       </c>
       <c r="H85" s="7">
-        <v>-8.602419448259</v>
+        <v>-8.6024194482590008</v>
       </c>
       <c r="I85" s="7">
         <v>-1.40813439733801</v>
@@ -5566,33 +4953,33 @@
         <v>2013</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F86" s="3">
         <v>20</v>
       </c>
       <c r="G86" s="7">
-        <v>6.06197620825847</v>
+        <v>6.0619762082584696</v>
       </c>
       <c r="H86" s="7">
-        <v>-15.3041064244955</v>
+        <v>-15.304106424495499</v>
       </c>
       <c r="I86" s="7">
         <v>-0.74370540337169</v>
@@ -5601,57 +4988,57 @@
         <v>2013</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L86" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="31">
+      <c r="A87" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="87" ht="30.6" spans="1:13">
-      <c r="A87" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="B87" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F87" s="3">
         <v>11</v>
       </c>
       <c r="G87" s="10">
-        <v>6518016.62001181</v>
+        <v>6518016.6200118102</v>
       </c>
       <c r="H87" s="10">
-        <v>-13725071.127117</v>
+        <v>-13725071.127117001</v>
       </c>
       <c r="I87" s="10">
-        <v>-425190.887126636</v>
+        <v>-425190.88712663599</v>
       </c>
       <c r="M87" s="5"/>
     </row>
-    <row r="88" ht="61.2" spans="1:13">
+    <row r="88" spans="1:13" ht="62">
       <c r="A88" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F88" s="3">
         <v>18</v>
@@ -5660,7 +5047,7 @@
         <v>148738.610099001</v>
       </c>
       <c r="H88" s="10">
-        <v>-331036.347945612</v>
+        <v>-331036.34794561198</v>
       </c>
       <c r="I88" s="10">
         <v>-313.75473703</v>
@@ -5669,24 +5056,24 @@
         <v>1993</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>21</v>
@@ -5701,65 +5088,65 @@
         <v>23.1000174386905</v>
       </c>
       <c r="I89" s="7">
-        <v>51.6000387909685</v>
+        <v>51.600038790968497</v>
       </c>
       <c r="J89" s="1">
         <v>2017</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="31">
       <c r="A90" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F90" s="3">
         <v>8</v>
       </c>
       <c r="G90" s="7">
-        <v>69.9711964785446</v>
+        <v>69.971196478544599</v>
       </c>
       <c r="H90" s="7">
-        <v>25.3000192190438</v>
+        <v>25.300019219043801</v>
       </c>
       <c r="I90" s="7">
-        <v>131.130098820924</v>
+        <v>131.13009882092399</v>
       </c>
       <c r="J90" s="1">
         <v>2017</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F91" s="3">
         <v>19</v>
@@ -5771,68 +5158,68 @@
         <v>-2484.25989730532</v>
       </c>
       <c r="I91" s="7">
-        <v>-420.429982620176</v>
+        <v>-420.42998262017602</v>
       </c>
       <c r="J91" s="1">
         <v>2009</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="92" ht="30.6" spans="1:12">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="31">
       <c r="A92" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F92" s="3">
         <v>10</v>
       </c>
       <c r="G92" s="7">
-        <v>105.533017657834</v>
+        <v>105.53301765783399</v>
       </c>
       <c r="H92" s="7">
-        <v>56.7000429751974</v>
+        <v>56.700042975197398</v>
       </c>
       <c r="I92" s="7">
-        <v>142.100107122245</v>
+        <v>142.10010712224499</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F93" s="3">
         <v>14</v>
@@ -5850,60 +5237,60 @@
         <v>2009</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" ht="30.6" spans="1:13">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="31">
       <c r="A94" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
       </c>
       <c r="G94" s="7">
-        <v>54.5131878546517</v>
+        <v>54.513187854651697</v>
       </c>
       <c r="H94" s="7">
         <v>-105.579995741145</v>
       </c>
       <c r="I94" s="7">
-        <v>-5.26999963829914</v>
+        <v>-5.2699996382991401</v>
       </c>
       <c r="J94" s="1">
         <v>2011</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="M94" s="5"/>
     </row>
-    <row r="95" ht="30.6" spans="1:13">
+    <row r="95" spans="1:13" ht="31">
       <c r="A95" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F95" s="3">
         <v>83</v>
@@ -5912,31 +5299,31 @@
         <v>114.983949183756</v>
       </c>
       <c r="H95" s="7">
-        <v>-237.079990061706</v>
+        <v>-237.07999006170601</v>
       </c>
       <c r="I95" s="7">
-        <v>-19.6899991796589</v>
+        <v>-19.689999179658901</v>
       </c>
       <c r="J95" s="1">
         <v>2011</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M95" s="5"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:13">
       <c r="A96" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>21</v>
@@ -5951,104 +5338,104 @@
         <v>-103.280078137275</v>
       </c>
       <c r="I96" s="7">
-        <v>5.440003877502</v>
+        <v>5.4400038775019999</v>
       </c>
       <c r="J96" s="1">
         <v>2017</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F97" s="3">
         <v>36</v>
       </c>
       <c r="G97" s="7">
-        <v>19.4480038097907</v>
+        <v>19.448003809790698</v>
       </c>
       <c r="H97" s="7">
-        <v>2.24000174426776</v>
+        <v>2.2400017442677602</v>
       </c>
       <c r="I97" s="7">
-        <v>49.8200378867362</v>
+        <v>49.820037886736202</v>
       </c>
       <c r="J97" s="1">
         <v>2017</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F98" s="3">
         <v>20</v>
       </c>
       <c r="G98" s="7">
-        <v>22.3052376037578</v>
+        <v>22.305237603757799</v>
       </c>
       <c r="H98" s="7">
-        <v>-35.7038112892026</v>
+        <v>-35.703811289202598</v>
       </c>
       <c r="I98" s="7">
-        <v>-7.65961281888176</v>
+        <v>-7.6596128188817598</v>
       </c>
       <c r="J98" s="1">
         <v>2016</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="M98" s="5"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13">
       <c r="A99" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>54</v>
@@ -6057,68 +5444,68 @@
         <v>14</v>
       </c>
       <c r="G99" s="7">
-        <v>34.941119655197</v>
+        <v>34.941119655196999</v>
       </c>
       <c r="H99" s="7">
-        <v>-60.8000461790359</v>
+        <v>-60.800046179035903</v>
       </c>
       <c r="I99" s="7">
-        <v>-14.0000105879188</v>
+        <v>-14.000010587918799</v>
       </c>
       <c r="J99" s="1">
         <v>2017</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F100" s="3">
         <v>13</v>
       </c>
       <c r="G100" s="7">
-        <v>71.3183147217153</v>
+        <v>71.318314721715296</v>
       </c>
       <c r="H100" s="7">
-        <v>-106.000080076026</v>
+        <v>-106.00008007602599</v>
       </c>
       <c r="I100" s="7">
-        <v>152.600115220062</v>
+        <v>152.60011522006201</v>
       </c>
       <c r="J100" s="1">
         <v>2017</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>54</v>
@@ -6130,74 +5517,74 @@
         <v>650.431965236731</v>
       </c>
       <c r="H101" s="7">
-        <v>522.100394329323</v>
+        <v>522.10039432932297</v>
       </c>
       <c r="I101" s="7">
-        <v>776.500586511787</v>
+        <v>776.50058651178699</v>
       </c>
       <c r="J101" s="1">
         <v>2017</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F102" s="3">
         <v>50</v>
       </c>
       <c r="G102" s="7">
-        <v>45.4184734383351</v>
+        <v>45.418473438335099</v>
       </c>
       <c r="H102" s="7">
-        <v>-1.15302732326313</v>
+        <v>-1.1530273232631301</v>
       </c>
       <c r="I102" s="7">
-        <v>103.772465368777</v>
+        <v>103.77246536877701</v>
       </c>
       <c r="J102" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:13">
       <c r="A103" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F103" s="3">
         <v>51</v>
       </c>
       <c r="G103" s="7">
-        <v>45.3538151424734</v>
+        <v>45.353815142473401</v>
       </c>
       <c r="H103" s="7">
         <v>-150.810113697341</v>
@@ -6206,100 +5593,100 @@
         <v>-0.179999837615163</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F104" s="3">
         <v>25</v>
       </c>
       <c r="G104" s="7">
-        <v>41.04888643337</v>
+        <v>41.048886433370001</v>
       </c>
       <c r="H104" s="7">
-        <v>0.189137630576425</v>
+        <v>0.18913763057642499</v>
       </c>
       <c r="I104" s="7">
-        <v>89.0866107710703</v>
+        <v>89.086610771070298</v>
       </c>
       <c r="J104" s="1">
         <v>1999</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F105" s="3">
         <v>36</v>
       </c>
       <c r="G105" s="7">
-        <v>265.653985355767</v>
+        <v>265.65398535576702</v>
       </c>
       <c r="H105" s="7">
-        <v>118.130574905729</v>
+        <v>118.13057490572901</v>
       </c>
       <c r="I105" s="7">
-        <v>402.151148875533</v>
+        <v>402.15114887553301</v>
       </c>
       <c r="J105" s="1">
         <v>1999</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="31">
       <c r="A106" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>21</v>
@@ -6308,45 +5695,45 @@
         <v>24</v>
       </c>
       <c r="G106" s="7">
-        <v>71.0477084649291</v>
+        <v>71.047708464929102</v>
       </c>
       <c r="H106" s="7">
         <v>-216.11016334687</v>
       </c>
       <c r="I106" s="7">
-        <v>-2.18000179839604</v>
+        <v>-2.1800017983960398</v>
       </c>
       <c r="J106" s="1">
         <v>2017</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F107" s="3">
         <v>202</v>
       </c>
       <c r="G107" s="7">
-        <v>83.4117603962007</v>
+        <v>83.411760396200705</v>
       </c>
       <c r="H107" s="7">
-        <v>-242.639990065894</v>
+        <v>-242.63999006589401</v>
       </c>
       <c r="I107" s="7">
         <v>233.119990363281</v>
@@ -6355,131 +5742,131 @@
         <v>2011</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M107" s="5"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F108" s="3">
         <v>505</v>
       </c>
       <c r="G108" s="7">
-        <v>74.7943382717632</v>
+        <v>74.794338271763195</v>
       </c>
       <c r="H108" s="7">
-        <v>-194.279992277662</v>
+        <v>-194.27999227766199</v>
       </c>
       <c r="I108" s="7">
-        <v>242.709989966849</v>
+        <v>242.70998996684901</v>
       </c>
       <c r="J108" s="1">
         <v>2011</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="M108" s="5"/>
     </row>
-    <row r="109" ht="30.6" spans="1:12">
+    <row r="109" spans="1:13" ht="31">
       <c r="A109" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F109" s="3">
         <v>11</v>
       </c>
       <c r="G109" s="7">
-        <v>58.5606610796812</v>
+        <v>58.560661079681203</v>
       </c>
       <c r="H109" s="7">
-        <v>43.7900332864767</v>
+        <v>43.790033286476699</v>
       </c>
       <c r="I109" s="7">
-        <v>73.8200557685215</v>
+        <v>73.820055768521499</v>
       </c>
       <c r="J109" s="1">
         <v>2017</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F110" s="3">
         <v>18</v>
       </c>
       <c r="G110" s="7">
-        <v>56.9483969829961</v>
+        <v>56.948396982996101</v>
       </c>
       <c r="H110" s="7">
-        <v>44.5745682212876</v>
+        <v>44.574568221287599</v>
       </c>
       <c r="I110" s="7">
-        <v>68.2122345223337</v>
+        <v>68.212234522333702</v>
       </c>
       <c r="J110" s="1">
         <v>2015</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F111" s="3">
         <v>23</v>
@@ -6488,7 +5875,7 @@
         <v>307.031152103522</v>
       </c>
       <c r="H111" s="7">
-        <v>230.766902132489</v>
+        <v>230.76690213248901</v>
       </c>
       <c r="I111" s="7">
         <v>496.56277617804</v>
@@ -6497,21 +5884,21 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:13">
       <c r="A112" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F112" s="3">
         <v>30</v>
@@ -6520,30 +5907,30 @@
         <v>281.769774235434</v>
       </c>
       <c r="H112" s="7">
-        <v>216.058884527669</v>
+        <v>216.05888452766899</v>
       </c>
       <c r="I112" s="7">
-        <v>379.258381500878</v>
+        <v>379.25838150087799</v>
       </c>
       <c r="J112" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="113" ht="30.6" spans="1:9">
+    <row r="113" spans="1:13" ht="31">
       <c r="A113" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F113" s="3">
         <v>165</v>
@@ -6552,24 +5939,24 @@
         <v>154.461240225388</v>
       </c>
       <c r="H113" s="7">
-        <v>-570.616431133413</v>
+        <v>-570.61643113341302</v>
       </c>
       <c r="I113" s="7">
-        <v>433.664327650087</v>
-      </c>
-    </row>
-    <row r="114" ht="30.6" spans="1:12">
+        <v>433.66432765008699</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="31">
       <c r="A114" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>54</v>
@@ -6578,45 +5965,45 @@
         <v>43</v>
       </c>
       <c r="G114" s="7">
-        <v>539.030820676396</v>
+        <v>539.03082067639605</v>
       </c>
       <c r="H114" s="7">
-        <v>-362.980874222597</v>
+        <v>-362.98087422259698</v>
       </c>
       <c r="I114" s="7">
-        <v>1290.73677483331</v>
+        <v>1290.7367748333099</v>
       </c>
       <c r="J114" s="1">
         <v>2017</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="115" ht="30.6" spans="1:10">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="31">
       <c r="A115" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F115" s="3">
         <v>34</v>
       </c>
       <c r="G115" s="7">
-        <v>833.232646126614</v>
+        <v>833.23264612661399</v>
       </c>
       <c r="H115" s="7">
-        <v>52.2724051522722</v>
+        <v>52.272405152272199</v>
       </c>
       <c r="I115" s="7">
         <v>1674.85842252917</v>
@@ -6625,18 +6012,18 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="116" ht="30.6" spans="1:12">
+    <row r="116" spans="1:13" ht="46.5">
       <c r="A116" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>21</v>
@@ -6645,45 +6032,45 @@
         <v>12</v>
       </c>
       <c r="G116" s="7">
-        <v>30.9092354052886</v>
+        <v>30.909235405288602</v>
       </c>
       <c r="H116" s="7">
-        <v>-48.8999999999961</v>
+        <v>-48.899999999996098</v>
       </c>
       <c r="I116" s="7">
-        <v>40.4000000000032</v>
+        <v>40.400000000003203</v>
       </c>
       <c r="J116" s="1">
         <v>2017</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="117" ht="45.9" spans="1:13">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="46.5">
       <c r="A117" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F117" s="3">
         <v>68</v>
       </c>
       <c r="G117" s="7">
-        <v>508.344479006317</v>
+        <v>508.34447900631699</v>
       </c>
       <c r="H117" s="7">
         <v>7.37335805704297</v>
@@ -6695,56 +6082,56 @@
         <v>2021</v>
       </c>
       <c r="M117" s="1">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F118" s="3">
         <v>26</v>
       </c>
       <c r="G118" s="7">
-        <v>191.813640050595</v>
+        <v>191.81364005059501</v>
       </c>
       <c r="H118" s="7">
         <v>106.200080523108</v>
       </c>
       <c r="I118" s="7">
-        <v>236.000178033838</v>
+        <v>236.00017803383801</v>
       </c>
       <c r="J118" s="1">
         <v>2017</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="119" ht="45.9" spans="1:11">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="46.5">
       <c r="A119" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>54</v>
@@ -6756,7 +6143,7 @@
         <v>136.70797524616</v>
       </c>
       <c r="H119" s="7">
-        <v>73.8999967104599</v>
+        <v>73.899996710459902</v>
       </c>
       <c r="I119" s="7">
         <v>171.149993063811</v>
@@ -6765,21 +6152,21 @@
         <v>2015</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="120" ht="45.9" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="46.5">
       <c r="A120" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>54</v>
@@ -6788,10 +6175,10 @@
         <v>6</v>
       </c>
       <c r="G120" s="7">
-        <v>96.1900351517758</v>
+        <v>96.190035151775803</v>
       </c>
       <c r="H120" s="7">
-        <v>-43.6399982812668</v>
+        <v>-43.639998281266799</v>
       </c>
       <c r="I120" s="7">
         <v>124.139994685201</v>
@@ -6800,21 +6187,21 @@
         <v>2015</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="121" ht="45.9" spans="1:11">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="46.5">
       <c r="A121" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>54</v>
@@ -6823,33 +6210,33 @@
         <v>6</v>
       </c>
       <c r="G121" s="7">
-        <v>356.327843020002</v>
+        <v>356.32784302000198</v>
       </c>
       <c r="H121" s="7">
-        <v>230.549990305082</v>
+        <v>230.54999030508199</v>
       </c>
       <c r="I121" s="7">
-        <v>501.849978988571</v>
+        <v>501.84997898857102</v>
       </c>
       <c r="J121" s="1">
         <v>2015</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="122" ht="30.6" spans="1:11">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="31">
       <c r="A122" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>54</v>
@@ -6858,33 +6245,33 @@
         <v>6</v>
       </c>
       <c r="G122" s="7">
-        <v>2539.27390187193</v>
+        <v>2539.2739018719299</v>
       </c>
       <c r="H122" s="7">
-        <v>793.899967150472</v>
+        <v>793.89996715047198</v>
       </c>
       <c r="I122" s="7">
-        <v>4621.45980921546</v>
+        <v>4621.4598092154602</v>
       </c>
       <c r="J122" s="1">
         <v>2015</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="123" ht="30.6" spans="1:12">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="31">
       <c r="A123" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>54</v>
@@ -6893,10 +6280,10 @@
         <v>21</v>
       </c>
       <c r="G123" s="7">
-        <v>43.9412749252386</v>
+        <v>43.941274925238602</v>
       </c>
       <c r="H123" s="7">
-        <v>-6.72000523280328</v>
+        <v>-6.7200052328032802</v>
       </c>
       <c r="I123" s="7">
         <v>126.560095413581</v>
@@ -6905,21 +6292,21 @@
         <v>2017</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>54</v>
@@ -6928,33 +6315,33 @@
         <v>43</v>
       </c>
       <c r="G124" s="7">
-        <v>9.95613220782854</v>
+        <v>9.9561322078285404</v>
       </c>
       <c r="H124" s="7">
-        <v>-26.4000201092204</v>
+        <v>-26.400020109220399</v>
       </c>
       <c r="I124" s="7">
-        <v>6.90000507041844</v>
+        <v>6.9000050704184401</v>
       </c>
       <c r="J124" s="1">
         <v>2017</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>21</v>
@@ -6963,75 +6350,75 @@
         <v>16</v>
       </c>
       <c r="G125" s="7">
-        <v>38.0748400183326</v>
+        <v>38.074840018332601</v>
       </c>
       <c r="H125" s="7">
-        <v>4.90000373714704</v>
+        <v>4.9000037371470402</v>
       </c>
       <c r="I125" s="7">
-        <v>64.4000485789244</v>
+        <v>64.400048578924398</v>
       </c>
       <c r="J125" s="1">
         <v>2017</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F126" s="3">
         <v>13</v>
       </c>
       <c r="G126" s="7">
-        <v>25.6659336819812</v>
+        <v>25.665933681981201</v>
       </c>
       <c r="H126" s="7">
-        <v>-48.0599980588738</v>
+        <v>-48.059998058873802</v>
       </c>
       <c r="I126" s="7">
-        <v>-2.53999959109794</v>
+        <v>-2.5399995910979398</v>
       </c>
       <c r="J126" s="1">
         <v>2011</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="M126" s="5"/>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F127" s="3">
         <v>17</v>
@@ -7040,7 +6427,7 @@
         <v>141.494045938472</v>
       </c>
       <c r="H127" s="7">
-        <v>53.0700399748635</v>
+        <v>53.070039974863498</v>
       </c>
       <c r="I127" s="7">
         <v>234.330177030371</v>
@@ -7049,34 +6436,34 @@
         <v>2017</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M127" s="5"/>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F128" s="3">
         <v>183</v>
       </c>
       <c r="G128" s="7">
-        <v>518.60345439805</v>
+        <v>518.60345439804996</v>
       </c>
       <c r="H128" s="7">
-        <v>39.0500294049875</v>
+        <v>39.050029404987498</v>
       </c>
       <c r="I128" s="7">
         <v>1597.31020684586</v>
@@ -7085,36 +6472,36 @@
         <v>2017</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="129" ht="30.6" spans="1:11">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="31">
       <c r="A129" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F129" s="3">
         <v>6</v>
       </c>
       <c r="G129" s="7">
-        <v>7.52632789802353</v>
+        <v>7.5263278980235304</v>
       </c>
       <c r="H129" s="7">
-        <v>-0.860420910527902</v>
+        <v>-0.86042091052790204</v>
       </c>
       <c r="I129" s="7">
         <v>11.1376669101099</v>
@@ -7123,21 +6510,21 @@
         <v>2012</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>21</v>
@@ -7146,66 +6533,66 @@
         <v>18</v>
       </c>
       <c r="G130" s="7">
-        <v>53.1140808698644</v>
+        <v>53.114080869864402</v>
       </c>
       <c r="H130" s="7">
         <v>12.3100096024941</v>
       </c>
       <c r="I130" s="7">
-        <v>91.1400690089274</v>
+        <v>91.140069008927398</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="131" ht="30.6" spans="1:13">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="46.5">
       <c r="A131" s="6" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F131" s="3">
         <v>35</v>
       </c>
       <c r="G131" s="7">
-        <v>132.889129290908</v>
+        <v>132.88912929090799</v>
       </c>
       <c r="H131" s="7">
-        <v>-1.89370248338459</v>
+        <v>-1.8937024833845899</v>
       </c>
       <c r="I131" s="7">
         <v>212.279999884538</v>
       </c>
       <c r="M131" s="5"/>
     </row>
-    <row r="132" ht="45.9" spans="1:13">
+    <row r="132" spans="1:13" ht="46.5">
       <c r="A132" s="6" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F132" s="3">
         <v>83</v>
@@ -7214,225 +6601,225 @@
         <v>114.120350536838</v>
       </c>
       <c r="H132" s="7">
-        <v>-31.9228546097889</v>
+        <v>-31.922854609788899</v>
       </c>
       <c r="I132" s="7">
-        <v>460.707457118892</v>
+        <v>460.70745711889202</v>
       </c>
       <c r="J132" s="1">
         <v>2020</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="133" ht="30.6" spans="1:10">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="31">
       <c r="A133" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B133" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="F133" s="3">
         <v>12</v>
       </c>
       <c r="G133" s="7">
-        <v>64.9311187375469</v>
+        <v>64.931118737546896</v>
       </c>
       <c r="H133" s="7">
-        <v>18.2395538624472</v>
+        <v>18.239553862447199</v>
       </c>
       <c r="I133" s="7">
-        <v>87.0045927841418</v>
+        <v>87.004592784141806</v>
       </c>
       <c r="J133" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="134" ht="30.6" spans="1:10">
+    <row r="134" spans="1:13" ht="31">
       <c r="A134" s="6" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F134" s="3">
         <v>52</v>
       </c>
       <c r="G134" s="7">
-        <v>21.7145872396486</v>
+        <v>21.714587239648601</v>
       </c>
       <c r="H134" s="7">
-        <v>-77.3219997729365</v>
+        <v>-77.321999772936493</v>
       </c>
       <c r="I134" s="7">
-        <v>65.0562051154942</v>
+        <v>65.056205115494194</v>
       </c>
       <c r="J134" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:13">
       <c r="A135" s="6" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F135" s="3">
         <v>56</v>
       </c>
       <c r="G135" s="7">
-        <v>26.9104878257864</v>
+        <v>26.910487825786401</v>
       </c>
       <c r="H135" s="7">
-        <v>-4.28999989488489</v>
+        <v>-4.2899998948848896</v>
       </c>
       <c r="I135" s="7">
-        <v>82.3399997640763</v>
+        <v>82.339999764076296</v>
       </c>
       <c r="J135" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="136" ht="30.6" spans="1:13">
+    <row r="136" spans="1:13" ht="31">
       <c r="A136" s="6" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F136" s="3">
         <v>61</v>
       </c>
       <c r="G136" s="7">
-        <v>64.10141009227</v>
+        <v>64.101410092270001</v>
       </c>
       <c r="H136" s="7">
         <v>-203.090000017563</v>
       </c>
       <c r="I136" s="7">
-        <v>-0.650000041119784</v>
+        <v>-0.65000004111978404</v>
       </c>
       <c r="J136" s="1">
         <v>2021</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="137" ht="45.9" spans="1:13">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="46.5">
       <c r="A137" s="6" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F137" s="3">
         <v>10</v>
       </c>
       <c r="G137" s="7">
-        <v>88.9362465851464</v>
+        <v>88.936246585146407</v>
       </c>
       <c r="H137" s="7">
         <v>34.297322849215</v>
       </c>
       <c r="I137" s="7">
-        <v>151.003823989455</v>
+        <v>151.00382398945499</v>
       </c>
       <c r="J137" s="1">
         <v>2019</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="138" ht="45.9" spans="1:13">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="46.5">
       <c r="A138" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F138" s="3">
         <v>13</v>
       </c>
       <c r="G138" s="7">
-        <v>33.9036757700019</v>
+        <v>33.903675770001897</v>
       </c>
       <c r="H138" s="7">
-        <v>-64.4000002606949</v>
+        <v>-64.400000260694895</v>
       </c>
       <c r="I138" s="7">
-        <v>27.0000001151439</v>
+        <v>27.000000115143902</v>
       </c>
       <c r="J138" s="1">
         <v>2019</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="139" ht="45.9" spans="1:13">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="46.5">
       <c r="A139" s="6" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F139" s="3">
         <v>11</v>
@@ -7441,81 +6828,79 @@
         <v>16.1381063859642</v>
       </c>
       <c r="H139" s="7">
-        <v>3.35000011538512</v>
+        <v>3.3500001153851202</v>
       </c>
       <c r="I139" s="7">
-        <v>37.1399997525974</v>
+        <v>37.139999752597397</v>
       </c>
       <c r="J139" s="1">
         <v>2019</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="140" spans="5:6">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="E140" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F140" s="3">
         <f>SUM(F2:F139)</f>
         <v>8384</v>
       </c>
     </row>
-    <row r="141" spans="5:5">
+    <row r="141" spans="1:13">
       <c r="E141" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="142" spans="5:5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="E142" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="143" spans="5:5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="E143" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="E144" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.3" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F1" s="3">
         <v>7</v>
       </c>
       <c r="G1" s="4">
-        <v>5e-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="H1" s="5"/>
       <c r="J1" s="1">
@@ -7525,16 +6910,16 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="P1" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.3" spans="1:16">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F2" s="3">
         <f>23+22</f>
@@ -7548,16 +6933,16 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.3" spans="1:16">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="15.5">
       <c r="A3" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F3" s="3">
         <v>32</v>
@@ -7570,16 +6955,16 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="P3" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15.3" spans="1:16">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.5">
       <c r="A4" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F4" s="3">
         <v>28</v>
@@ -7592,22 +6977,22 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="P4" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15.3" spans="1:16">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="15.5">
       <c r="A5" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F5" s="3">
         <v>33</v>
       </c>
       <c r="G5" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H5" s="5"/>
       <c r="J5" s="1">
@@ -7617,22 +7002,22 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="P5" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15.3" spans="1:16">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="15.5">
       <c r="A6" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F6" s="3">
         <v>34</v>
       </c>
       <c r="G6" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H6" s="5"/>
       <c r="J6" s="1">
@@ -7642,16 +7027,16 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="P6" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15.3" spans="1:16">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="15.5">
       <c r="A7" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F7" s="3">
         <f>30+30</f>
@@ -7665,16 +7050,16 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="P7" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15.3" spans="1:16">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="15.5">
       <c r="A8" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F8" s="3">
         <v>36</v>
@@ -7687,10 +7072,10 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="P8" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="6:6">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="F10">
         <f>SUM(F1:F8)</f>
         <v>275</v>
@@ -7699,6 +7084,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>